--- a/input/similarity_c_c.xlsx
+++ b/input/similarity_c_c.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\feita1\Uni\PhD\Projects\French keyboard\Optimization\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\feita1\Uni\PhD\Projects\French keyboard\Optimization\optimizing-the-french-keyboard\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="80">
   <si>
     <t>é</t>
   </si>
@@ -200,9 +200,6 @@
     <t>`d</t>
   </si>
   <si>
-    <t>ˆd</t>
-  </si>
-  <si>
     <t>¨d</t>
   </si>
   <si>
@@ -255,6 +252,18 @@
   </si>
   <si>
     <t>ø</t>
+  </si>
+  <si>
+    <t>^d</t>
+  </si>
+  <si>
+    <t>å</t>
+  </si>
+  <si>
+    <t>Å</t>
+  </si>
+  <si>
+    <t>²</t>
   </si>
 </sst>
 </file>
@@ -624,18 +633,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CG79"/>
+  <dimension ref="A1:CF81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="79" width="3.85546875" customWidth="1"/>
+    <col min="2" max="77" width="3.85546875" customWidth="1"/>
+    <col min="78" max="81" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
@@ -643,16 +653,16 @@
         <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>60</v>
@@ -661,190 +671,190 @@
         <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="AD1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BH1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="BH1" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="BI1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BJ1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="BK1" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="BK1" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="BL1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BM1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="BN1" t="s">
+        <v>0</v>
+      </c>
       <c r="BO1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="BP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ1" t="s">
         <v>68</v>
       </c>
-      <c r="BQ1" t="s">
-        <v>1</v>
-      </c>
       <c r="BR1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS1" t="s">
         <v>69</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>3</v>
       </c>
       <c r="BT1" t="s">
         <v>70</v>
@@ -865,19 +875,22 @@
         <v>75</v>
       </c>
       <c r="BZ1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" t="s">
         <v>4</v>
       </c>
-      <c r="CB1" s="3"/>
-      <c r="CC1" s="3"/>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="CD1" s="3"/>
       <c r="CE1" s="3"/>
       <c r="CF1" s="3"/>
-      <c r="CG1" s="3"/>
-    </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -898,7 +911,7 @@
         <v>0.5</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J2">
         <v>0.8</v>
@@ -912,17 +925,14 @@
       <c r="M2">
         <v>0.8</v>
       </c>
-      <c r="N2">
-        <v>0.8</v>
+      <c r="BN2">
+        <v>0.5</v>
       </c>
       <c r="BO2">
         <v>0.5</v>
       </c>
-      <c r="BP2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -941,7 +951,7 @@
         <v>0.5</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J3">
         <v>0.8</v>
@@ -955,19 +965,16 @@
       <c r="M3">
         <v>0.8</v>
       </c>
-      <c r="N3">
-        <v>0.8</v>
+      <c r="BP3">
+        <v>0.5</v>
       </c>
       <c r="BQ3">
         <v>0.5</v>
       </c>
-      <c r="BR3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
@@ -982,7 +989,7 @@
         <v>0.5</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J4">
         <v>0.8</v>
@@ -996,16 +1003,13 @@
       <c r="M4">
         <v>0.8</v>
       </c>
-      <c r="N4">
-        <v>0.8</v>
-      </c>
-      <c r="Z4">
+      <c r="Y4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
@@ -1018,7 +1022,7 @@
         <v>0.5</v>
       </c>
       <c r="I5">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J5">
         <v>0.8</v>
@@ -1032,13 +1036,10 @@
       <c r="M5">
         <v>0.8</v>
       </c>
-      <c r="N5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
@@ -1049,7 +1050,7 @@
         <v>0.8</v>
       </c>
       <c r="I6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J6">
         <v>0.5</v>
@@ -1063,16 +1064,13 @@
       <c r="M6">
         <v>0.5</v>
       </c>
-      <c r="N6">
-        <v>0.5</v>
-      </c>
-      <c r="BY6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="BX6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
@@ -1080,11 +1078,11 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="BB7">
+      <c r="BA7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -1096,7 +1094,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J8">
         <v>0.5</v>
@@ -1110,11 +1108,8 @@
       <c r="M8">
         <v>0.5</v>
       </c>
-      <c r="N8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -1138,13 +1133,10 @@
       <c r="M9">
         <v>0.5</v>
       </c>
-      <c r="N9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
@@ -1164,13 +1156,13 @@
       <c r="M10">
         <v>0.5</v>
       </c>
-      <c r="N10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="Z10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
@@ -1188,18 +1180,12 @@
       <c r="M11">
         <v>0.5</v>
       </c>
-      <c r="N11">
-        <v>0.5</v>
-      </c>
-      <c r="AA11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1213,15 +1199,15 @@
       <c r="M12">
         <v>0.5</v>
       </c>
-      <c r="N12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="BM12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1233,16 +1219,13 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13">
-        <v>0.5</v>
-      </c>
-      <c r="BN13">
+      <c r="BM13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>65</v>
+    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
@@ -1257,13 +1240,16 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="BN14">
+      <c r="P14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
@@ -1282,13 +1268,10 @@
       <c r="Q15">
         <v>1</v>
       </c>
-      <c r="V15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
@@ -1305,13 +1288,10 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="R16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
@@ -1330,9 +1310,9 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
@@ -1351,10 +1331,13 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-    </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BM18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
@@ -1374,13 +1357,16 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
-      <c r="BN19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="T19">
+        <v>0.5</v>
+      </c>
+      <c r="BK19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
@@ -1401,16 +1387,13 @@
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
-      <c r="U20">
-        <v>0.5</v>
-      </c>
       <c r="BL20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
@@ -1432,13 +1415,10 @@
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
-      <c r="BM21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="7"/>
@@ -1461,10 +1441,16 @@
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
-    </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="7"/>
@@ -1491,13 +1477,10 @@
       <c r="X23">
         <v>1</v>
       </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="7"/>
@@ -1522,13 +1505,10 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
-      <c r="Y24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="7"/>
@@ -1555,9 +1535,9 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="7"/>
@@ -1585,11 +1565,11 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1615,12 +1595,18 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
-    </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="6"/>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="BM27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1647,16 +1633,13 @@
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
-      <c r="AC28">
-        <v>1</v>
-      </c>
-      <c r="BN28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>44</v>
+      <c r="BM28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="7"/>
@@ -1686,13 +1669,13 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
-      <c r="BN29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="AD29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="7"/>
@@ -1723,13 +1706,10 @@
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="7"/>
@@ -1761,10 +1741,13 @@
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
-    </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="AF31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="7"/>
@@ -1797,13 +1780,10 @@
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
-      <c r="AG32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="7"/>
@@ -1837,10 +1817,13 @@
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
-    </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AH33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="7"/>
@@ -1875,13 +1858,10 @@
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
-      <c r="AI34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="7"/>
@@ -1917,10 +1897,13 @@
       <c r="AG35" s="7"/>
       <c r="AH35" s="7"/>
       <c r="AI35" s="7"/>
-    </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AJ35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="7"/>
@@ -1957,13 +1940,10 @@
       <c r="AH36" s="7"/>
       <c r="AI36" s="7"/>
       <c r="AJ36" s="7"/>
-      <c r="AK36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="7"/>
@@ -2002,9 +1982,9 @@
       <c r="AJ37" s="7"/>
       <c r="AK37" s="7"/>
     </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
@@ -2044,9 +2024,9 @@
       <c r="AK38" s="7"/>
       <c r="AL38" s="7"/>
     </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
@@ -2087,9 +2067,9 @@
       <c r="AL39" s="7"/>
       <c r="AM39" s="7"/>
     </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="7"/>
@@ -2130,10 +2110,19 @@
       <c r="AL40" s="7"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="7"/>
-    </row>
-    <row r="41" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AO40">
+        <v>1</v>
+      </c>
+      <c r="AP40">
+        <v>1</v>
+      </c>
+      <c r="BC40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="7"/>
@@ -2178,16 +2167,13 @@
       <c r="AP41">
         <v>1</v>
       </c>
-      <c r="AQ41">
+      <c r="BC41">
         <v>1</v>
       </c>
-      <c r="BD41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="7"/>
@@ -2230,16 +2216,13 @@
       <c r="AN42" s="7"/>
       <c r="AO42" s="7"/>
       <c r="AP42" s="7"/>
-      <c r="AQ42">
+      <c r="BC42">
         <v>1</v>
       </c>
-      <c r="BD42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="7"/>
@@ -2283,13 +2266,34 @@
       <c r="AO43" s="7"/>
       <c r="AP43" s="7"/>
       <c r="AQ43" s="7"/>
+      <c r="AR43">
+        <v>0.5</v>
+      </c>
+      <c r="AS43">
+        <v>0.5</v>
+      </c>
+      <c r="AW43">
+        <v>0.5</v>
+      </c>
       <c r="BD43">
+        <v>0.5</v>
+      </c>
+      <c r="BG43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BH43">
+        <v>0.5</v>
+      </c>
+      <c r="BI43">
+        <v>0.5</v>
+      </c>
+      <c r="BJ43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="7"/>
@@ -2337,31 +2341,25 @@
       <c r="AS44">
         <v>0.5</v>
       </c>
-      <c r="AT44">
-        <v>0.5</v>
-      </c>
-      <c r="AX44">
-        <v>0.5</v>
-      </c>
-      <c r="BE44">
+      <c r="AW44">
+        <v>0.5</v>
+      </c>
+      <c r="BD44">
         <v>0.5</v>
       </c>
       <c r="BH44">
+        <v>0.5</v>
+      </c>
+      <c r="BI44">
+        <v>0.5</v>
+      </c>
+      <c r="BJ44">
         <v>1</v>
       </c>
-      <c r="BI44">
-        <v>0.5</v>
-      </c>
-      <c r="BJ44">
-        <v>0.5</v>
-      </c>
-      <c r="BK44">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="7"/>
@@ -2407,13 +2405,13 @@
       <c r="AQ45" s="7"/>
       <c r="AR45" s="7"/>
       <c r="AS45" s="7"/>
-      <c r="AT45">
-        <v>0.5</v>
-      </c>
-      <c r="AX45">
-        <v>0.5</v>
-      </c>
-      <c r="BE45">
+      <c r="AW45">
+        <v>0.5</v>
+      </c>
+      <c r="BD45">
+        <v>1</v>
+      </c>
+      <c r="BH45">
         <v>0.5</v>
       </c>
       <c r="BI45">
@@ -2422,13 +2420,10 @@
       <c r="BJ45">
         <v>0.5</v>
       </c>
-      <c r="BK45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="7"/>
@@ -2475,25 +2470,16 @@
       <c r="AR46" s="7"/>
       <c r="AS46" s="7"/>
       <c r="AT46" s="7"/>
-      <c r="AX46">
-        <v>0.5</v>
-      </c>
       <c r="BE46">
         <v>1</v>
       </c>
-      <c r="BI46">
-        <v>0.5</v>
-      </c>
-      <c r="BJ46">
-        <v>0.5</v>
-      </c>
-      <c r="BK46">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BF46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="7"/>
@@ -2541,16 +2527,16 @@
       <c r="AS47" s="7"/>
       <c r="AT47" s="7"/>
       <c r="AU47" s="7"/>
+      <c r="BE47">
+        <v>1</v>
+      </c>
       <c r="BF47">
         <v>1</v>
       </c>
-      <c r="BG47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="7"/>
@@ -2599,16 +2585,13 @@
       <c r="AT48" s="7"/>
       <c r="AU48" s="7"/>
       <c r="AV48" s="7"/>
-      <c r="BF48">
-        <v>1</v>
-      </c>
-      <c r="BG48">
+      <c r="BB48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="7"/>
@@ -2658,13 +2641,13 @@
       <c r="AU49" s="7"/>
       <c r="AV49" s="7"/>
       <c r="AW49" s="7"/>
-      <c r="BC49">
+      <c r="AX49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="7"/>
@@ -2715,13 +2698,10 @@
       <c r="AV50" s="7"/>
       <c r="AW50" s="7"/>
       <c r="AX50" s="7"/>
-      <c r="AY50">
-        <v>1</v>
-      </c>
     </row>
     <row r="51" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="7"/>
@@ -2776,7 +2756,7 @@
     </row>
     <row r="52" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="7"/>
@@ -2832,7 +2812,7 @@
     </row>
     <row r="53" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="7"/>
@@ -2889,7 +2869,7 @@
     </row>
     <row r="54" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="7"/>
@@ -2947,7 +2927,7 @@
     </row>
     <row r="55" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="7"/>
@@ -3006,7 +2986,7 @@
     </row>
     <row r="56" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="7"/>
@@ -3063,10 +3043,19 @@
       <c r="BB56" s="7"/>
       <c r="BC56" s="7"/>
       <c r="BD56" s="7"/>
+      <c r="BH56">
+        <v>0.5</v>
+      </c>
+      <c r="BI56">
+        <v>0.5</v>
+      </c>
+      <c r="BJ56">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="57" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="7"/>
@@ -3124,19 +3113,10 @@
       <c r="BC57" s="7"/>
       <c r="BD57" s="7"/>
       <c r="BE57" s="7"/>
-      <c r="BI57">
-        <v>0.5</v>
-      </c>
-      <c r="BJ57">
-        <v>0.5</v>
-      </c>
-      <c r="BK57">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="58" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="7"/>
@@ -3198,7 +3178,7 @@
     </row>
     <row r="59" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="7"/>
@@ -3260,8 +3240,8 @@
       <c r="BG59" s="7"/>
     </row>
     <row r="60" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>48</v>
+      <c r="A60" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="7"/>
@@ -3322,10 +3302,16 @@
       <c r="BF60" s="7"/>
       <c r="BG60" s="7"/>
       <c r="BH60" s="7"/>
+      <c r="BI60">
+        <v>0.5</v>
+      </c>
+      <c r="BJ60">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="61" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="7"/>
@@ -3390,13 +3376,10 @@
       <c r="BJ61">
         <v>0.5</v>
       </c>
-      <c r="BK61">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="62" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="7"/>
@@ -3459,13 +3442,10 @@
       <c r="BH62" s="7"/>
       <c r="BI62" s="7"/>
       <c r="BJ62" s="7"/>
-      <c r="BK62">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="63" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>51</v>
+      <c r="A63" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="7"/>
@@ -3532,7 +3512,7 @@
     </row>
     <row r="64" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="7"/>
@@ -3598,11 +3578,11 @@
       <c r="BK64" s="7"/>
       <c r="BL64" s="7"/>
     </row>
-    <row r="65" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65" s="5"/>
+    <row r="65" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="6"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -3667,9 +3647,9 @@
       <c r="BL65" s="7"/>
       <c r="BM65" s="7"/>
     </row>
-    <row r="66" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>54</v>
+    <row r="66" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="7"/>
@@ -3736,10 +3716,13 @@
       <c r="BL66" s="7"/>
       <c r="BM66" s="7"/>
       <c r="BN66" s="7"/>
-    </row>
-    <row r="67" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="BO66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="7"/>
@@ -3807,13 +3790,10 @@
       <c r="BM67" s="7"/>
       <c r="BN67" s="7"/>
       <c r="BO67" s="7"/>
-      <c r="BP67">
+    </row>
+    <row r="68" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>68</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="7"/>
@@ -3882,10 +3862,13 @@
       <c r="BN68" s="7"/>
       <c r="BO68" s="7"/>
       <c r="BP68" s="7"/>
-    </row>
-    <row r="69" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="BQ68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
@@ -3955,13 +3938,10 @@
       <c r="BO69" s="7"/>
       <c r="BP69" s="7"/>
       <c r="BQ69" s="7"/>
-      <c r="BR69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:79" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
@@ -4033,9 +4013,9 @@
       <c r="BQ70" s="7"/>
       <c r="BR70" s="7"/>
     </row>
-    <row r="71" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
@@ -4107,8 +4087,11 @@
       <c r="BQ71" s="7"/>
       <c r="BR71" s="7"/>
       <c r="BS71" s="7"/>
-    </row>
-    <row r="72" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="BT71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4183,11 +4166,8 @@
       <c r="BR72" s="7"/>
       <c r="BS72" s="7"/>
       <c r="BT72" s="7"/>
-      <c r="BU72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:79" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -4263,8 +4243,11 @@
       <c r="BS73" s="7"/>
       <c r="BT73" s="7"/>
       <c r="BU73" s="7"/>
-    </row>
-    <row r="74" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="BV73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4341,11 +4324,8 @@
       <c r="BT74" s="7"/>
       <c r="BU74" s="7"/>
       <c r="BV74" s="7"/>
-      <c r="BW74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:79" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4424,7 +4404,7 @@
       <c r="BV75" s="7"/>
       <c r="BW75" s="7"/>
     </row>
-    <row r="76" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4504,7 +4484,7 @@
       <c r="BW76" s="7"/>
       <c r="BX76" s="7"/>
     </row>
-    <row r="77" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -4584,13 +4564,16 @@
       <c r="BW77" s="7"/>
       <c r="BX77" s="7"/>
       <c r="BY77" s="7"/>
-    </row>
-    <row r="78" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="BZ77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B78" s="6"/>
-      <c r="C78" s="7"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
@@ -4666,16 +4649,13 @@
       <c r="BX78" s="7"/>
       <c r="BY78" s="7"/>
       <c r="BZ78" s="7"/>
-      <c r="CA78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="5"/>
+    </row>
+    <row r="79" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -4752,6 +4732,178 @@
       <c r="BY79" s="7"/>
       <c r="BZ79" s="7"/>
       <c r="CA79" s="7"/>
+      <c r="CB79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="7"/>
+      <c r="AC80" s="7"/>
+      <c r="AD80" s="7"/>
+      <c r="AE80" s="7"/>
+      <c r="AF80" s="7"/>
+      <c r="AG80" s="7"/>
+      <c r="AH80" s="7"/>
+      <c r="AI80" s="7"/>
+      <c r="AJ80" s="7"/>
+      <c r="AK80" s="7"/>
+      <c r="AL80" s="7"/>
+      <c r="AM80" s="7"/>
+      <c r="AN80" s="7"/>
+      <c r="AO80" s="7"/>
+      <c r="AP80" s="7"/>
+      <c r="AQ80" s="7"/>
+      <c r="AR80" s="7"/>
+      <c r="AS80" s="7"/>
+      <c r="AT80" s="7"/>
+      <c r="AU80" s="7"/>
+      <c r="AV80" s="7"/>
+      <c r="AW80" s="7"/>
+      <c r="AX80" s="7"/>
+      <c r="AY80" s="7"/>
+      <c r="AZ80" s="7"/>
+      <c r="BA80" s="7"/>
+      <c r="BB80" s="7"/>
+      <c r="BC80" s="7"/>
+      <c r="BD80" s="7"/>
+      <c r="BE80" s="7"/>
+      <c r="BF80" s="7"/>
+      <c r="BG80" s="7"/>
+      <c r="BH80" s="7"/>
+      <c r="BI80" s="7"/>
+      <c r="BJ80" s="7"/>
+      <c r="BK80" s="7"/>
+      <c r="BL80" s="7"/>
+      <c r="BM80" s="7"/>
+      <c r="BN80" s="7"/>
+      <c r="BO80" s="7"/>
+      <c r="BP80" s="7"/>
+      <c r="BQ80" s="7"/>
+      <c r="BR80" s="7"/>
+      <c r="BS80" s="7"/>
+      <c r="BT80" s="7"/>
+      <c r="BU80" s="7"/>
+      <c r="BV80" s="7"/>
+      <c r="BW80" s="7"/>
+      <c r="BX80" s="7"/>
+      <c r="BY80" s="7"/>
+      <c r="BZ80" s="7"/>
+      <c r="CA80" s="7"/>
+      <c r="CB80" s="7"/>
+    </row>
+    <row r="81" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="7"/>
+      <c r="AA81" s="7"/>
+      <c r="AB81" s="7"/>
+      <c r="AC81" s="7"/>
+      <c r="AD81" s="7"/>
+      <c r="AE81" s="7"/>
+      <c r="AF81" s="7"/>
+      <c r="AG81" s="7"/>
+      <c r="AH81" s="7"/>
+      <c r="AI81" s="7"/>
+      <c r="AJ81" s="7"/>
+      <c r="AK81" s="7"/>
+      <c r="AL81" s="7"/>
+      <c r="AM81" s="7"/>
+      <c r="AN81" s="7"/>
+      <c r="AO81" s="7"/>
+      <c r="AP81" s="7"/>
+      <c r="AQ81" s="7"/>
+      <c r="AR81" s="7"/>
+      <c r="AS81" s="7"/>
+      <c r="AT81" s="7"/>
+      <c r="AU81" s="7"/>
+      <c r="AV81" s="7"/>
+      <c r="AW81" s="7"/>
+      <c r="AX81" s="7"/>
+      <c r="AY81" s="7"/>
+      <c r="AZ81" s="7"/>
+      <c r="BA81" s="7"/>
+      <c r="BB81" s="7"/>
+      <c r="BC81" s="7"/>
+      <c r="BD81" s="7"/>
+      <c r="BE81" s="7"/>
+      <c r="BF81" s="7"/>
+      <c r="BG81" s="7"/>
+      <c r="BH81" s="7"/>
+      <c r="BI81" s="7"/>
+      <c r="BJ81" s="7"/>
+      <c r="BK81" s="7"/>
+      <c r="BL81" s="7"/>
+      <c r="BM81" s="7"/>
+      <c r="BN81" s="7"/>
+      <c r="BO81" s="7"/>
+      <c r="BP81" s="7"/>
+      <c r="BQ81" s="7"/>
+      <c r="BR81" s="7"/>
+      <c r="BS81" s="7"/>
+      <c r="BT81" s="7"/>
+      <c r="BU81" s="7"/>
+      <c r="BV81" s="7"/>
+      <c r="BW81" s="7"/>
+      <c r="BX81" s="7"/>
+      <c r="BY81" s="7"/>
+      <c r="BZ81" s="7"/>
+      <c r="CA81" s="7"/>
+      <c r="CB81" s="7"/>
+      <c r="CC81" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/similarity_c_c.xlsx
+++ b/input/similarity_c_c.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\feita1\Uni\PhD\Projects\French keyboard\Optimization\optimizing-the-french-keyboard\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="87">
   <si>
     <t>é</t>
   </si>
@@ -264,6 +259,27 @@
   </si>
   <si>
     <t>²</t>
+  </si>
+  <si>
+    <t>c'h</t>
+  </si>
+  <si>
+    <t>C'H</t>
+  </si>
+  <si>
+    <t>C'h</t>
+  </si>
+  <si>
+    <t>Ð</t>
+  </si>
+  <si>
+    <t>ð</t>
+  </si>
+  <si>
+    <t>Þ</t>
+  </si>
+  <si>
+    <t>þ</t>
   </si>
 </sst>
 </file>
@@ -625,7 +641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -633,19 +649,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF81"/>
+  <dimension ref="A1:CJ88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="32" ySplit="19" topLeftCell="AG71" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG1" sqref="AG1"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="A88" sqref="A82:XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="77" width="3.85546875" customWidth="1"/>
     <col min="78" max="81" width="3.42578125" customWidth="1"/>
+    <col min="82" max="82" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="4" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="88" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
@@ -886,11 +909,29 @@
       <c r="CC1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" s="3"/>
-      <c r="CE1" s="3"/>
-      <c r="CF1" s="3"/>
-    </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="CD1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -932,7 +973,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -972,7 +1013,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -1007,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
@@ -1037,7 +1078,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
@@ -1068,7 +1109,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>66</v>
       </c>
@@ -1082,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -1109,7 +1150,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -1134,7 +1175,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -1160,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -1181,7 +1222,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -1203,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -1223,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1247,7 +1288,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1269,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -4820,7 +4861,7 @@
       <c r="CA80" s="7"/>
       <c r="CB80" s="7"/>
     </row>
-    <row r="81" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4905,6 +4946,644 @@
       <c r="CB81" s="7"/>
       <c r="CC81" s="7"/>
     </row>
+    <row r="82" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
+      <c r="AC82" s="7"/>
+      <c r="AD82" s="7"/>
+      <c r="AE82" s="7"/>
+      <c r="AF82" s="7"/>
+      <c r="AG82" s="7"/>
+      <c r="AH82" s="7"/>
+      <c r="AI82" s="7"/>
+      <c r="AJ82" s="7"/>
+      <c r="AK82" s="7"/>
+      <c r="AL82" s="7"/>
+      <c r="AM82" s="7"/>
+      <c r="AN82" s="7"/>
+      <c r="AO82" s="7"/>
+      <c r="AP82" s="7"/>
+      <c r="AQ82" s="7"/>
+      <c r="AR82" s="7"/>
+      <c r="AS82" s="7"/>
+      <c r="AT82" s="7"/>
+      <c r="AU82" s="7"/>
+      <c r="AV82" s="7"/>
+      <c r="AW82" s="7"/>
+      <c r="AX82" s="7"/>
+      <c r="AY82" s="7"/>
+      <c r="AZ82" s="7"/>
+      <c r="BA82" s="7"/>
+      <c r="BB82" s="7"/>
+      <c r="BC82" s="7"/>
+      <c r="BD82" s="7"/>
+      <c r="BE82" s="7"/>
+      <c r="BF82" s="7"/>
+      <c r="BG82" s="7"/>
+      <c r="BH82" s="7"/>
+      <c r="BI82" s="7"/>
+      <c r="BJ82" s="7"/>
+      <c r="BK82" s="7"/>
+      <c r="BL82" s="7"/>
+      <c r="BM82" s="7"/>
+      <c r="BN82" s="7"/>
+      <c r="BO82" s="7"/>
+      <c r="BP82" s="7"/>
+      <c r="BQ82" s="7"/>
+      <c r="BR82" s="7"/>
+      <c r="BS82" s="7"/>
+      <c r="BT82" s="7"/>
+      <c r="BU82" s="7"/>
+      <c r="BV82" s="7"/>
+      <c r="BW82" s="7"/>
+      <c r="BX82" s="7"/>
+      <c r="BY82" s="7"/>
+      <c r="BZ82" s="7"/>
+      <c r="CA82" s="7"/>
+      <c r="CB82" s="7"/>
+      <c r="CC82" s="7"/>
+      <c r="CD82" s="7"/>
+      <c r="CE82">
+        <v>1</v>
+      </c>
+      <c r="CF82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
+      <c r="AC83" s="7"/>
+      <c r="AD83" s="7"/>
+      <c r="AE83" s="7"/>
+      <c r="AF83" s="7"/>
+      <c r="AG83" s="7"/>
+      <c r="AH83" s="7"/>
+      <c r="AI83" s="7"/>
+      <c r="AJ83" s="7"/>
+      <c r="AK83" s="7"/>
+      <c r="AL83" s="7"/>
+      <c r="AM83" s="7"/>
+      <c r="AN83" s="7"/>
+      <c r="AO83" s="7"/>
+      <c r="AP83" s="7"/>
+      <c r="AQ83" s="7"/>
+      <c r="AR83" s="7"/>
+      <c r="AS83" s="7"/>
+      <c r="AT83" s="7"/>
+      <c r="AU83" s="7"/>
+      <c r="AV83" s="7"/>
+      <c r="AW83" s="7"/>
+      <c r="AX83" s="7"/>
+      <c r="AY83" s="7"/>
+      <c r="AZ83" s="7"/>
+      <c r="BA83" s="7"/>
+      <c r="BB83" s="7"/>
+      <c r="BC83" s="7"/>
+      <c r="BD83" s="7"/>
+      <c r="BE83" s="7"/>
+      <c r="BF83" s="7"/>
+      <c r="BG83" s="7"/>
+      <c r="BH83" s="7"/>
+      <c r="BI83" s="7"/>
+      <c r="BJ83" s="7"/>
+      <c r="BK83" s="7"/>
+      <c r="BL83" s="7"/>
+      <c r="BM83" s="7"/>
+      <c r="BN83" s="7"/>
+      <c r="BO83" s="7"/>
+      <c r="BP83" s="7"/>
+      <c r="BQ83" s="7"/>
+      <c r="BR83" s="7"/>
+      <c r="BS83" s="7"/>
+      <c r="BT83" s="7"/>
+      <c r="BU83" s="7"/>
+      <c r="BV83" s="7"/>
+      <c r="BW83" s="7"/>
+      <c r="BX83" s="7"/>
+      <c r="BY83" s="7"/>
+      <c r="BZ83" s="7"/>
+      <c r="CA83" s="7"/>
+      <c r="CB83" s="7"/>
+      <c r="CC83" s="7"/>
+      <c r="CD83" s="7"/>
+      <c r="CE83" s="7"/>
+      <c r="CF83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="7"/>
+      <c r="AB84" s="7"/>
+      <c r="AC84" s="7"/>
+      <c r="AD84" s="7"/>
+      <c r="AE84" s="7"/>
+      <c r="AF84" s="7"/>
+      <c r="AG84" s="7"/>
+      <c r="AH84" s="7"/>
+      <c r="AI84" s="7"/>
+      <c r="AJ84" s="7"/>
+      <c r="AK84" s="7"/>
+      <c r="AL84" s="7"/>
+      <c r="AM84" s="7"/>
+      <c r="AN84" s="7"/>
+      <c r="AO84" s="7"/>
+      <c r="AP84" s="7"/>
+      <c r="AQ84" s="7"/>
+      <c r="AR84" s="7"/>
+      <c r="AS84" s="7"/>
+      <c r="AT84" s="7"/>
+      <c r="AU84" s="7"/>
+      <c r="AV84" s="7"/>
+      <c r="AW84" s="7"/>
+      <c r="AX84" s="7"/>
+      <c r="AY84" s="7"/>
+      <c r="AZ84" s="7"/>
+      <c r="BA84" s="7"/>
+      <c r="BB84" s="7"/>
+      <c r="BC84" s="7"/>
+      <c r="BD84" s="7"/>
+      <c r="BE84" s="7"/>
+      <c r="BF84" s="7"/>
+      <c r="BG84" s="7"/>
+      <c r="BH84" s="7"/>
+      <c r="BI84" s="7"/>
+      <c r="BJ84" s="7"/>
+      <c r="BK84" s="7"/>
+      <c r="BL84" s="7"/>
+      <c r="BM84" s="7"/>
+      <c r="BN84" s="7"/>
+      <c r="BO84" s="7"/>
+      <c r="BP84" s="7"/>
+      <c r="BQ84" s="7"/>
+      <c r="BR84" s="7"/>
+      <c r="BS84" s="7"/>
+      <c r="BT84" s="7"/>
+      <c r="BU84" s="7"/>
+      <c r="BV84" s="7"/>
+      <c r="BW84" s="7"/>
+      <c r="BX84" s="7"/>
+      <c r="BY84" s="7"/>
+      <c r="BZ84" s="7"/>
+      <c r="CA84" s="7"/>
+      <c r="CB84" s="7"/>
+      <c r="CC84" s="7"/>
+      <c r="CD84" s="7"/>
+      <c r="CE84" s="7"/>
+      <c r="CF84" s="7"/>
+    </row>
+    <row r="85" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
+      <c r="AC85" s="7"/>
+      <c r="AD85" s="7"/>
+      <c r="AE85" s="7"/>
+      <c r="AF85" s="7"/>
+      <c r="AG85" s="7"/>
+      <c r="AH85" s="7"/>
+      <c r="AI85" s="7"/>
+      <c r="AJ85" s="7"/>
+      <c r="AK85" s="7"/>
+      <c r="AL85" s="7"/>
+      <c r="AM85" s="7"/>
+      <c r="AN85" s="7"/>
+      <c r="AO85" s="7"/>
+      <c r="AP85" s="7"/>
+      <c r="AQ85" s="7"/>
+      <c r="AR85" s="7"/>
+      <c r="AS85" s="7"/>
+      <c r="AT85" s="7"/>
+      <c r="AU85" s="7"/>
+      <c r="AV85" s="7"/>
+      <c r="AW85" s="7"/>
+      <c r="AX85" s="7"/>
+      <c r="AY85" s="7"/>
+      <c r="AZ85" s="7"/>
+      <c r="BA85" s="7"/>
+      <c r="BB85" s="7"/>
+      <c r="BC85" s="7"/>
+      <c r="BD85" s="7"/>
+      <c r="BE85" s="7"/>
+      <c r="BF85" s="7"/>
+      <c r="BG85" s="7"/>
+      <c r="BH85" s="7"/>
+      <c r="BI85" s="7"/>
+      <c r="BJ85" s="7"/>
+      <c r="BK85" s="7"/>
+      <c r="BL85" s="7"/>
+      <c r="BM85" s="7"/>
+      <c r="BN85" s="7"/>
+      <c r="BO85" s="7"/>
+      <c r="BP85" s="7"/>
+      <c r="BQ85" s="7"/>
+      <c r="BR85" s="7"/>
+      <c r="BS85" s="7"/>
+      <c r="BT85" s="7"/>
+      <c r="BU85" s="7"/>
+      <c r="BV85" s="7"/>
+      <c r="BW85" s="7"/>
+      <c r="BX85" s="7"/>
+      <c r="BY85" s="7"/>
+      <c r="BZ85" s="7"/>
+      <c r="CA85" s="7"/>
+      <c r="CB85" s="7"/>
+      <c r="CC85" s="7"/>
+      <c r="CD85" s="7"/>
+      <c r="CE85" s="7"/>
+      <c r="CF85" s="7"/>
+      <c r="CG85" s="7"/>
+      <c r="CH85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
+      <c r="AC86" s="7"/>
+      <c r="AD86" s="7"/>
+      <c r="AE86" s="7"/>
+      <c r="AF86" s="7"/>
+      <c r="AG86" s="7"/>
+      <c r="AH86" s="7"/>
+      <c r="AI86" s="7"/>
+      <c r="AJ86" s="7"/>
+      <c r="AK86" s="7"/>
+      <c r="AL86" s="7"/>
+      <c r="AM86" s="7"/>
+      <c r="AN86" s="7"/>
+      <c r="AO86" s="7"/>
+      <c r="AP86" s="7"/>
+      <c r="AQ86" s="7"/>
+      <c r="AR86" s="7"/>
+      <c r="AS86" s="7"/>
+      <c r="AT86" s="7"/>
+      <c r="AU86" s="7"/>
+      <c r="AV86" s="7"/>
+      <c r="AW86" s="7"/>
+      <c r="AX86" s="7"/>
+      <c r="AY86" s="7"/>
+      <c r="AZ86" s="7"/>
+      <c r="BA86" s="7"/>
+      <c r="BB86" s="7"/>
+      <c r="BC86" s="7"/>
+      <c r="BD86" s="7"/>
+      <c r="BE86" s="7"/>
+      <c r="BF86" s="7"/>
+      <c r="BG86" s="7"/>
+      <c r="BH86" s="7"/>
+      <c r="BI86" s="7"/>
+      <c r="BJ86" s="7"/>
+      <c r="BK86" s="7"/>
+      <c r="BL86" s="7"/>
+      <c r="BM86" s="7"/>
+      <c r="BN86" s="7"/>
+      <c r="BO86" s="7"/>
+      <c r="BP86" s="7"/>
+      <c r="BQ86" s="7"/>
+      <c r="BR86" s="7"/>
+      <c r="BS86" s="7"/>
+      <c r="BT86" s="7"/>
+      <c r="BU86" s="7"/>
+      <c r="BV86" s="7"/>
+      <c r="BW86" s="7"/>
+      <c r="BX86" s="7"/>
+      <c r="BY86" s="7"/>
+      <c r="BZ86" s="7"/>
+      <c r="CA86" s="7"/>
+      <c r="CB86" s="7"/>
+      <c r="CC86" s="7"/>
+      <c r="CD86" s="7"/>
+      <c r="CE86" s="7"/>
+      <c r="CF86" s="7"/>
+      <c r="CG86" s="7"/>
+      <c r="CH86" s="7"/>
+    </row>
+    <row r="87" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
+      <c r="AC87" s="7"/>
+      <c r="AD87" s="7"/>
+      <c r="AE87" s="7"/>
+      <c r="AF87" s="7"/>
+      <c r="AG87" s="7"/>
+      <c r="AH87" s="7"/>
+      <c r="AI87" s="7"/>
+      <c r="AJ87" s="7"/>
+      <c r="AK87" s="7"/>
+      <c r="AL87" s="7"/>
+      <c r="AM87" s="7"/>
+      <c r="AN87" s="7"/>
+      <c r="AO87" s="7"/>
+      <c r="AP87" s="7"/>
+      <c r="AQ87" s="7"/>
+      <c r="AR87" s="7"/>
+      <c r="AS87" s="7"/>
+      <c r="AT87" s="7"/>
+      <c r="AU87" s="7"/>
+      <c r="AV87" s="7"/>
+      <c r="AW87" s="7"/>
+      <c r="AX87" s="7"/>
+      <c r="AY87" s="7"/>
+      <c r="AZ87" s="7"/>
+      <c r="BA87" s="7"/>
+      <c r="BB87" s="7"/>
+      <c r="BC87" s="7"/>
+      <c r="BD87" s="7"/>
+      <c r="BE87" s="7"/>
+      <c r="BF87" s="7"/>
+      <c r="BG87" s="7"/>
+      <c r="BH87" s="7"/>
+      <c r="BI87" s="7"/>
+      <c r="BJ87" s="7"/>
+      <c r="BK87" s="7"/>
+      <c r="BL87" s="7"/>
+      <c r="BM87" s="7"/>
+      <c r="BN87" s="7"/>
+      <c r="BO87" s="7"/>
+      <c r="BP87" s="7"/>
+      <c r="BQ87" s="7"/>
+      <c r="BR87" s="7"/>
+      <c r="BS87" s="7"/>
+      <c r="BT87" s="7"/>
+      <c r="BU87" s="7"/>
+      <c r="BV87" s="7"/>
+      <c r="BW87" s="7"/>
+      <c r="BX87" s="7"/>
+      <c r="BY87" s="7"/>
+      <c r="BZ87" s="7"/>
+      <c r="CA87" s="7"/>
+      <c r="CB87" s="7"/>
+      <c r="CC87" s="7"/>
+      <c r="CD87" s="7"/>
+      <c r="CE87" s="7"/>
+      <c r="CF87" s="7"/>
+      <c r="CG87" s="7"/>
+      <c r="CH87" s="7"/>
+      <c r="CI87" s="7"/>
+      <c r="CJ87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
+      <c r="AC88" s="7"/>
+      <c r="AD88" s="7"/>
+      <c r="AE88" s="7"/>
+      <c r="AF88" s="7"/>
+      <c r="AG88" s="7"/>
+      <c r="AH88" s="7"/>
+      <c r="AI88" s="7"/>
+      <c r="AJ88" s="7"/>
+      <c r="AK88" s="7"/>
+      <c r="AL88" s="7"/>
+      <c r="AM88" s="7"/>
+      <c r="AN88" s="7"/>
+      <c r="AO88" s="7"/>
+      <c r="AP88" s="7"/>
+      <c r="AQ88" s="7"/>
+      <c r="AR88" s="7"/>
+      <c r="AS88" s="7"/>
+      <c r="AT88" s="7"/>
+      <c r="AU88" s="7"/>
+      <c r="AV88" s="7"/>
+      <c r="AW88" s="7"/>
+      <c r="AX88" s="7"/>
+      <c r="AY88" s="7"/>
+      <c r="AZ88" s="7"/>
+      <c r="BA88" s="7"/>
+      <c r="BB88" s="7"/>
+      <c r="BC88" s="7"/>
+      <c r="BD88" s="7"/>
+      <c r="BE88" s="7"/>
+      <c r="BF88" s="7"/>
+      <c r="BG88" s="7"/>
+      <c r="BH88" s="7"/>
+      <c r="BI88" s="7"/>
+      <c r="BJ88" s="7"/>
+      <c r="BK88" s="7"/>
+      <c r="BL88" s="7"/>
+      <c r="BM88" s="7"/>
+      <c r="BN88" s="7"/>
+      <c r="BO88" s="7"/>
+      <c r="BP88" s="7"/>
+      <c r="BQ88" s="7"/>
+      <c r="BR88" s="7"/>
+      <c r="BS88" s="7"/>
+      <c r="BT88" s="7"/>
+      <c r="BU88" s="7"/>
+      <c r="BV88" s="7"/>
+      <c r="BW88" s="7"/>
+      <c r="BX88" s="7"/>
+      <c r="BY88" s="7"/>
+      <c r="BZ88" s="7"/>
+      <c r="CA88" s="7"/>
+      <c r="CB88" s="7"/>
+      <c r="CC88" s="7"/>
+      <c r="CD88" s="7"/>
+      <c r="CE88" s="7"/>
+      <c r="CF88" s="7"/>
+      <c r="CG88" s="7"/>
+      <c r="CH88" s="7"/>
+      <c r="CI88" s="7"/>
+      <c r="CJ88" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
